--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Ward_Lindsey/Arthur_Ward_Lindsey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Ward_Lindsey/Arthur_Ward_Lindsey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Ward Lindsey est un entomologiste américain, né le 11 janvier 1894 à Council Bluffs dans l'Iowa et mort le 8 mars 1963 à Lancaster dans l'Ohio d’une crise cardiaque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Morningside College de Sioux City où il obtient son Bachelor of Arts en 1916. Collectionnant depuis tout jeune les papillons, il fait paraître sa première publication (The Butterflies of Woodbury County) en 1914.
 Durant son doctorat, il étudie la célèbre collection de William Barnes (1860-1930) à Decatur dans l’Illinois. Il se lie d’amitié avec son conservateur, en fonction depuis 1910, James Halliday McDunnough (1877-1962). En 1919, il soutient son doctorat avec une thèse intitulée The Hesperioidea of America, North of Mexico. La même année, il remplace McDunnough à son poste de conservateur, fonction qu’il conservera jusqu’en 1921. Barnes et Lindsey font paraître cette année un travail de révision de la famille des Pterophoridae mais Lindsey en est le véritable auteur.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Mallis (1971). American Entomologists. Rutgers University Press (New Brunswick) : xvii + 549 p.
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
